--- a/config_7.6/fish_am_yutu_random_5.xlsx
+++ b/config_7.6/fish_am_yutu_random_5.xlsx
@@ -283,14 +283,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,10 +306,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -318,15 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,16 +348,11 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -361,32 +363,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,9 +393,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,6 +416,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -458,13 +458,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,19 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,133 +632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,26 +667,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,15 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -741,17 +732,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,14 +767,14 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,138 +783,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:J19"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1983,11 +1983,11 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="6">
-        <v>1623167999</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1623254399</v>
+      <c r="I18" s="5">
+        <v>1625529600</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1626105599</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="5">
-        <v>1625529600</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1626105599</v>
+      <c r="I19" s="6">
+        <v>1623167999</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1623254399</v>
       </c>
     </row>
   </sheetData>

--- a/config_7.6/fish_am_yutu_random_5.xlsx
+++ b/config_7.6/fish_am_yutu_random_5.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
   <si>
     <t>no</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>137,</t>
+  </si>
+  <si>
+    <t>鱼粮boss</t>
+  </si>
+  <si>
+    <t>138,</t>
   </si>
 </sst>
 </file>
@@ -248,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -283,26 +289,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -313,15 +308,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -341,22 +353,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -371,10 +375,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,16 +390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,10 +407,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,13 +436,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -458,168 +464,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -627,18 +645,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +669,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,32 +733,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -728,15 +743,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,22 +765,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,138 +789,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1548,10 +1554,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2016,6 +2022,32 @@
       </c>
       <c r="J19" s="6">
         <v>1623254399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20">
+        <v>3000</v>
+      </c>
+      <c r="E20">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1625529600</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2572214400</v>
       </c>
     </row>
   </sheetData>
